--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39809.67</v>
+        <v>56000.61</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13269.89</v>
+        <v>9333.43</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3422.33</v>
+        <v>3455.65</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11443.77</v>
+        <v>11710.39</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24943.57</v>
+        <v>20256.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>20578.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,88 +436,117 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56000.61</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9333.43</v>
+        <v>3775.52</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3528.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3455.65</v>
+        <v>12784.46</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11804.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11710.39</v>
+        <v>19634.08</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20195.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20256.26</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22767.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21964.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9826.959999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9582.209999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20578.31</v>
+        <v>58961.77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>57493.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,105 +443,91 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+        <v>57962.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3775.52</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3528.45</v>
+        <v>8280.370000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12784.46</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11804.95</v>
+        <v>469.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19634.08</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20195.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+        <v>3528.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22767.71</v>
-      </c>
-      <c r="C7" t="n">
-        <v>21964.31</v>
+        <v>11804.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9826.959999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9582.209999999999</v>
+        <v>20195.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58961.77</v>
-      </c>
-      <c r="C9" t="n">
-        <v>57493.28</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>21964.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,95 +439,123 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57962.61</v>
+        <v>469.33</v>
+      </c>
+      <c r="C2" t="n">
+        <v>501.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8280.370000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469.33</v>
-      </c>
+        <v>3528.45</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11804.95</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11113.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3528.45</v>
+        <v>20195.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19958.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11804.95</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20195.57</v>
+        <v>21964.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27091.71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8280.370000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11733.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21964.31</v>
+        <v>57962.61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>58665.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>501.48</v>
       </c>
+      <c r="D2" t="n">
+        <v>555.74</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +476,9 @@
         <v>0</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -479,6 +490,9 @@
         <v>3528.45</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>4463.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +506,9 @@
       <c r="C5" t="n">
         <v>11113.28</v>
       </c>
+      <c r="D5" t="n">
+        <v>12200.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -505,6 +522,9 @@
       <c r="C6" t="n">
         <v>19958.94</v>
       </c>
+      <c r="D6" t="n">
+        <v>14940.27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -518,6 +538,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -531,6 +554,9 @@
       <c r="C8" t="n">
         <v>27091.71</v>
       </c>
+      <c r="D8" t="n">
+        <v>30316.81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -544,6 +570,9 @@
       <c r="C9" t="n">
         <v>11733.08</v>
       </c>
+      <c r="D9" t="n">
+        <v>8925.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -556,6 +585,9 @@
       </c>
       <c r="C10" t="n">
         <v>58665.41</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62476.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -464,6 +469,9 @@
       </c>
       <c r="D2" t="n">
         <v>555.74</v>
+      </c>
+      <c r="E2" t="n">
+        <v>493.12</v>
       </c>
     </row>
     <row r="3">
@@ -479,6 +487,9 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -493,6 +504,9 @@
       <c r="D4" t="n">
         <v>4463.67</v>
       </c>
+      <c r="E4" t="n">
+        <v>4509.85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -509,6 +523,9 @@
       <c r="D5" t="n">
         <v>12200.15</v>
       </c>
+      <c r="E5" t="n">
+        <v>11868.55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -525,6 +542,9 @@
       <c r="D6" t="n">
         <v>14940.27</v>
       </c>
+      <c r="E6" t="n">
+        <v>15038.41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -541,6 +561,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -557,6 +580,7 @@
       <c r="D8" t="n">
         <v>30316.81</v>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -573,6 +597,9 @@
       <c r="D9" t="n">
         <v>8925.23</v>
       </c>
+      <c r="E9" t="n">
+        <v>5318.32</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -588,6 +615,9 @@
       </c>
       <c r="D10" t="n">
         <v>62476.64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31909.93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>493.12</v>
       </c>
+      <c r="F2" t="n">
+        <v>504.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -488,6 +496,9 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -507,6 +518,9 @@
       <c r="E4" t="n">
         <v>4509.85</v>
       </c>
+      <c r="F4" t="n">
+        <v>4473.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -526,6 +540,9 @@
       <c r="E5" t="n">
         <v>11868.55</v>
       </c>
+      <c r="F5" t="n">
+        <v>12026.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +562,9 @@
       <c r="E6" t="n">
         <v>15038.41</v>
       </c>
+      <c r="F6" t="n">
+        <v>14826.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -564,6 +584,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +604,7 @@
         <v>30316.81</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -600,6 +624,9 @@
       <c r="E9" t="n">
         <v>5318.32</v>
       </c>
+      <c r="F9" t="n">
+        <v>5305.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -618,6 +645,9 @@
       </c>
       <c r="E10" t="n">
         <v>31909.93</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31830.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>504.15</v>
       </c>
+      <c r="G2" t="n">
+        <v>493.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -499,6 +507,9 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -521,6 +532,9 @@
       <c r="F4" t="n">
         <v>4473.06</v>
       </c>
+      <c r="G4" t="n">
+        <v>4282.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -543,6 +557,9 @@
       <c r="F5" t="n">
         <v>12026.47</v>
       </c>
+      <c r="G5" t="n">
+        <v>11733.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -565,6 +582,9 @@
       <c r="F6" t="n">
         <v>14826.6</v>
       </c>
+      <c r="G6" t="n">
+        <v>15208.35</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -587,6 +607,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -605,6 +628,7 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -627,6 +651,9 @@
       <c r="F9" t="n">
         <v>5305.05</v>
       </c>
+      <c r="G9" t="n">
+        <v>5286.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -648,6 +675,9 @@
       </c>
       <c r="F10" t="n">
         <v>31830.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31716.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>493.2</v>
       </c>
+      <c r="H2" t="n">
+        <v>535.45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -510,6 +518,9 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -535,6 +546,9 @@
       <c r="G4" t="n">
         <v>4282.03</v>
       </c>
+      <c r="H4" t="n">
+        <v>4646.47</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -560,6 +574,9 @@
       <c r="G5" t="n">
         <v>11733.3</v>
       </c>
+      <c r="H5" t="n">
+        <v>12520.73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +602,9 @@
       <c r="G6" t="n">
         <v>15208.35</v>
       </c>
+      <c r="H6" t="n">
+        <v>14999.23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -608,6 +628,9 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -629,6 +652,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -654,6 +678,9 @@
       <c r="G9" t="n">
         <v>5286.15</v>
       </c>
+      <c r="H9" t="n">
+        <v>5450.31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -678,6 +705,9 @@
       </c>
       <c r="G10" t="n">
         <v>31716.88</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32701.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>535.45</v>
       </c>
+      <c r="I2" t="n">
+        <v>524.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -521,6 +529,9 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -549,6 +560,9 @@
       <c r="H4" t="n">
         <v>4646.47</v>
       </c>
+      <c r="I4" t="n">
+        <v>4598</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -577,6 +591,9 @@
       <c r="H5" t="n">
         <v>12520.73</v>
       </c>
+      <c r="I5" t="n">
+        <v>12688.77</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +622,9 @@
       <c r="H6" t="n">
         <v>14999.23</v>
       </c>
+      <c r="I6" t="n">
+        <v>14805.07</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,6 +651,9 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -653,6 +676,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -681,6 +705,9 @@
       <c r="H9" t="n">
         <v>5450.31</v>
       </c>
+      <c r="I9" t="n">
+        <v>5436.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -708,6 +735,9 @@
       </c>
       <c r="H10" t="n">
         <v>32701.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32616.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>524.27</v>
       </c>
+      <c r="J2" t="n">
+        <v>552.13</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -532,6 +540,9 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -563,6 +574,9 @@
       <c r="I4" t="n">
         <v>4598</v>
       </c>
+      <c r="J4" t="n">
+        <v>4708.93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -594,6 +608,9 @@
       <c r="I5" t="n">
         <v>12688.77</v>
       </c>
+      <c r="J5" t="n">
+        <v>13397.58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +642,9 @@
       <c r="I6" t="n">
         <v>14805.07</v>
       </c>
+      <c r="J6" t="n">
+        <v>15016.74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,6 +700,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -708,6 +732,9 @@
       <c r="I9" t="n">
         <v>5436.02</v>
       </c>
+      <c r="J9" t="n">
+        <v>5612.56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -738,6 +765,9 @@
       </c>
       <c r="I10" t="n">
         <v>32616.11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33675.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>552.13</v>
       </c>
+      <c r="K2" t="n">
+        <v>562.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,6 +551,9 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -577,6 +588,9 @@
       <c r="J4" t="n">
         <v>4708.93</v>
       </c>
+      <c r="K4" t="n">
+        <v>4722.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,6 +625,9 @@
       <c r="J5" t="n">
         <v>13397.58</v>
       </c>
+      <c r="K5" t="n">
+        <v>13604.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +662,9 @@
       <c r="J6" t="n">
         <v>15016.74</v>
       </c>
+      <c r="K6" t="n">
+        <v>14766.66</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +697,9 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -701,6 +724,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -735,6 +759,9 @@
       <c r="J9" t="n">
         <v>5612.56</v>
       </c>
+      <c r="K9" t="n">
+        <v>5609.26</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -768,6 +795,9 @@
       </c>
       <c r="J10" t="n">
         <v>33675.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>33655.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>562.83</v>
       </c>
+      <c r="L2" t="n">
+        <v>525.22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -554,6 +562,9 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -591,6 +602,9 @@
       <c r="K4" t="n">
         <v>4722.02</v>
       </c>
+      <c r="L4" t="n">
+        <v>4283.76</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -628,6 +642,9 @@
       <c r="K5" t="n">
         <v>13604.05</v>
       </c>
+      <c r="L5" t="n">
+        <v>12442.72</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -665,6 +682,9 @@
       <c r="K6" t="n">
         <v>14766.66</v>
       </c>
+      <c r="L6" t="n">
+        <v>15169.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -700,6 +720,9 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -725,6 +748,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -762,6 +786,9 @@
       <c r="K9" t="n">
         <v>5609.26</v>
       </c>
+      <c r="L9" t="n">
+        <v>5403.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -798,6 +825,9 @@
       </c>
       <c r="K10" t="n">
         <v>33655.56</v>
+      </c>
+      <c r="L10" t="n">
+        <v>32421.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/METR.xlsx
+++ b/backend/src/excel_handler/files/METR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>525.22</v>
       </c>
+      <c r="M2" t="n">
+        <v>498.97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -565,6 +573,9 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -605,6 +616,9 @@
       <c r="L4" t="n">
         <v>4283.76</v>
       </c>
+      <c r="M4" t="n">
+        <v>4093.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -645,6 +659,9 @@
       <c r="L5" t="n">
         <v>12442.72</v>
       </c>
+      <c r="M5" t="n">
+        <v>12173.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -685,6 +702,9 @@
       <c r="L6" t="n">
         <v>15169.42</v>
       </c>
+      <c r="M6" t="n">
+        <v>14677.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +743,9 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,6 +772,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -789,6 +813,9 @@
       <c r="L9" t="n">
         <v>5403.52</v>
       </c>
+      <c r="M9" t="n">
+        <v>5240.57</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -828,6 +855,9 @@
       </c>
       <c r="L10" t="n">
         <v>32421.12</v>
+      </c>
+      <c r="M10" t="n">
+        <v>31443.44</v>
       </c>
     </row>
   </sheetData>
